--- a/app/Licenciatura_em_Organizacao_e_Gestao_da_Educacao_Pos_Laboral.xlsx
+++ b/app/Licenciatura_em_Organizacao_e_Gestao_da_Educacao_Pos_Laboral.xlsx
@@ -22,26 +22,25 @@
     <sheet name="20153853" sheetId="12" r:id="rId15"/>
     <sheet name="20153856" sheetId="13" r:id="rId16"/>
     <sheet name="20153861" sheetId="14" r:id="rId17"/>
-    <sheet name="20154482" sheetId="15" r:id="rId18"/>
-    <sheet name="20153860" sheetId="16" r:id="rId19"/>
-    <sheet name="20153862" sheetId="17" r:id="rId20"/>
-    <sheet name="20153863" sheetId="18" r:id="rId21"/>
-    <sheet name="20153864" sheetId="19" r:id="rId22"/>
-    <sheet name="20153849" sheetId="20" r:id="rId23"/>
-    <sheet name="20153844" sheetId="21" r:id="rId24"/>
-    <sheet name="20153839" sheetId="22" r:id="rId25"/>
-    <sheet name="20153851" sheetId="23" r:id="rId26"/>
-    <sheet name="20153850" sheetId="24" r:id="rId27"/>
-    <sheet name="20153865" sheetId="25" r:id="rId28"/>
-    <sheet name="20153848" sheetId="26" r:id="rId29"/>
-    <sheet name="20153859" sheetId="27" r:id="rId30"/>
-    <sheet name="20153857" sheetId="28" r:id="rId31"/>
-    <sheet name="20153845" sheetId="29" r:id="rId32"/>
-    <sheet name="20153846" sheetId="30" r:id="rId33"/>
-    <sheet name="20153840" sheetId="31" r:id="rId34"/>
-    <sheet name="20153841" sheetId="32" r:id="rId35"/>
-    <sheet name="Sheet2" sheetId="33" r:id="rId36"/>
-    <sheet name="Sheet3" sheetId="34" r:id="rId37"/>
+    <sheet name="20153860" sheetId="15" r:id="rId18"/>
+    <sheet name="20153862" sheetId="16" r:id="rId19"/>
+    <sheet name="20153863" sheetId="17" r:id="rId20"/>
+    <sheet name="20153864" sheetId="18" r:id="rId21"/>
+    <sheet name="20153849" sheetId="19" r:id="rId22"/>
+    <sheet name="20153844" sheetId="20" r:id="rId23"/>
+    <sheet name="20153839" sheetId="21" r:id="rId24"/>
+    <sheet name="20153851" sheetId="22" r:id="rId25"/>
+    <sheet name="20153850" sheetId="23" r:id="rId26"/>
+    <sheet name="20153865" sheetId="24" r:id="rId27"/>
+    <sheet name="20153848" sheetId="25" r:id="rId28"/>
+    <sheet name="20153859" sheetId="26" r:id="rId29"/>
+    <sheet name="20153857" sheetId="27" r:id="rId30"/>
+    <sheet name="20153845" sheetId="28" r:id="rId31"/>
+    <sheet name="20153846" sheetId="29" r:id="rId32"/>
+    <sheet name="20153840" sheetId="30" r:id="rId33"/>
+    <sheet name="20153841" sheetId="31" r:id="rId34"/>
+    <sheet name="Sheet2" sheetId="32" r:id="rId35"/>
+    <sheet name="Sheet3" sheetId="33" r:id="rId36"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="0"/>
@@ -49,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="273">
   <si>
     <t>UNIVERSIDADE EDUARDO MONDLANE</t>
   </si>
@@ -198,9 +197,6 @@
     <t>Marta Palmira Nhiuane</t>
   </si>
   <si>
-    <t>Distrito Municipal de Kampfumo</t>
-  </si>
-  <si>
     <t>Feminino</t>
   </si>
   <si>
@@ -237,9 +233,6 @@
     <t>Lucia Muianga</t>
   </si>
   <si>
-    <t>Distrito de Mavalane</t>
-  </si>
-  <si>
     <t>Masculino</t>
   </si>
   <si>
@@ -270,9 +263,6 @@
     <t>Helena Ernesto Mate</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamavota</t>
-  </si>
-  <si>
     <t>110101819396P</t>
   </si>
   <si>
@@ -318,9 +308,6 @@
     <t>Orpa Xavier Arrone Mutemb</t>
   </si>
   <si>
-    <t>Distrito de Marracuene</t>
-  </si>
-  <si>
     <t>Casado</t>
   </si>
   <si>
@@ -426,9 +413,6 @@
     <t>Adelina Domingos</t>
   </si>
   <si>
-    <t>Distrito Municipal Kamubukwana</t>
-  </si>
-  <si>
     <t>110102340246C</t>
   </si>
   <si>
@@ -498,21 +482,12 @@
     <t>Maria Beque Chalala</t>
   </si>
   <si>
-    <t>Distrito de Boane</t>
-  </si>
-  <si>
     <t>100200711461N</t>
   </si>
   <si>
     <t>+258844238454</t>
   </si>
   <si>
-    <t>Machel</t>
-  </si>
-  <si>
-    <t>Amélia Moisés</t>
-  </si>
-  <si>
     <t>JÙlio</t>
   </si>
   <si>
@@ -550,9 +525,6 @@
   </si>
   <si>
     <t>Monica Estevao</t>
-  </si>
-  <si>
-    <t>Distrito Municipal de Nlhamankulu</t>
   </si>
   <si>
     <t>110102275703 B</t>
@@ -2154,7 +2126,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2170,7 +2142,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2186,7 +2158,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2202,7 +2174,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2218,7 +2190,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2233,9 +2205,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>89</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2243,7 +2213,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2254,7 +2224,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2263,7 +2233,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2275,7 +2245,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2283,7 +2253,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2379,7 +2349,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -2422,7 +2392,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -2749,7 +2719,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -2765,7 +2735,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -2781,7 +2751,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -2797,7 +2767,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -2813,7 +2783,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -2828,9 +2798,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>125</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -2838,7 +2806,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -2849,7 +2817,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -2858,7 +2826,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -2870,7 +2838,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -2878,7 +2846,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -2974,7 +2942,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3017,7 +2985,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3344,7 +3312,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3360,7 +3328,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3376,7 +3344,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3392,7 +3360,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -3408,7 +3376,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -3423,9 +3391,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -3433,7 +3399,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -3444,7 +3410,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -3453,7 +3419,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -3465,7 +3431,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -3473,7 +3439,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -3569,7 +3535,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -3612,7 +3578,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -3939,7 +3905,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -3955,7 +3921,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -3971,7 +3937,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -3987,7 +3953,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4003,7 +3969,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4018,9 +3984,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>73</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4028,7 +3992,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4039,7 +4003,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4048,7 +4012,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4060,7 +4024,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4068,7 +4032,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4164,7 +4128,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4207,7 +4171,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -4534,7 +4498,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -4550,7 +4514,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -4566,7 +4530,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -4582,7 +4546,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -4598,7 +4562,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -4613,9 +4577,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>149</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -4623,7 +4585,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -4634,7 +4596,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -4643,7 +4605,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -4655,7 +4617,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -4663,7 +4625,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -4759,7 +4721,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -4802,7 +4764,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -5053,7 +5015,9 @@
       <c r="J2" s="15"/>
     </row>
     <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16"/>
+      <c r="A3" s="16" t="s">
+        <v>42</v>
+      </c>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -5103,7 +5067,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20154482</v>
+        <v>20153860</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5127,7 +5091,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -5143,7 +5107,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -5158,7 +5122,9 @@
         <v>11</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>148</v>
+      </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -5172,7 +5138,9 @@
         <v>12</v>
       </c>
       <c r="B13" s="25"/>
-      <c r="C13" s="20"/>
+      <c r="C13" s="20" t="s">
+        <v>149</v>
+      </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
       <c r="F13" s="20"/>
@@ -5186,7 +5154,9 @@
         <v>13</v>
       </c>
       <c r="B14" s="25"/>
-      <c r="C14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>150</v>
+      </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
       <c r="F14" s="20"/>
@@ -5207,7 +5177,9 @@
         <v>15</v>
       </c>
       <c r="G15" s="25"/>
-      <c r="H15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>61</v>
+      </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
     </row>
@@ -5216,14 +5188,18 @@
         <v>16</v>
       </c>
       <c r="B16" s="25"/>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
       <c r="F16" s="25" t="s">
         <v>17</v>
       </c>
       <c r="G16" s="25"/>
-      <c r="H16" s="20"/>
+      <c r="H16" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
     </row>
@@ -5233,13 +5209,17 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20" t="s">
+        <v>62</v>
+      </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
         <v>19</v>
       </c>
       <c r="G17" s="25"/>
-      <c r="H17" s="20"/>
+      <c r="H17" s="20" t="s">
+        <v>151</v>
+      </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
     </row>
@@ -5334,7 +5314,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>103</v>
+        <v>152</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -5360,7 +5340,9 @@
       <c r="B27" s="23"/>
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
-      <c r="E27" s="26"/>
+      <c r="E27" s="26">
+        <v>2009</v>
+      </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
         <v>33</v>
@@ -5374,7 +5356,9 @@
         <v>34</v>
       </c>
       <c r="B28" s="25"/>
-      <c r="C28" s="20"/>
+      <c r="C28" s="20" t="s">
+        <v>153</v>
+      </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
       <c r="F28" s="20"/>
@@ -5676,7 +5660,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153860</v>
+        <v>20153862</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -5779,9 +5763,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>73</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -5789,7 +5771,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -5800,7 +5782,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -5809,7 +5791,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -5821,7 +5803,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -5952,7 +5934,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2009</v>
+        <v>2002</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -6271,7 +6253,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153862</v>
+        <v>20153863</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -6295,7 +6277,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6311,7 +6293,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6327,7 +6309,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6343,7 +6325,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6359,7 +6341,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6374,9 +6356,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>167</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6384,7 +6364,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6395,7 +6375,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6404,7 +6384,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -6416,7 +6396,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -6424,7 +6404,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -6520,7 +6500,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -6547,7 +6527,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2002</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -6563,7 +6543,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>170</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -6866,7 +6846,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153863</v>
+        <v>20153864</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -6890,7 +6870,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -6906,7 +6886,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -6922,7 +6902,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -6938,7 +6918,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -6954,7 +6934,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -6969,9 +6949,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>73</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -6979,7 +6957,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -6990,7 +6968,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -6999,7 +6977,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7011,7 +6989,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7019,7 +6997,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7115,7 +7093,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7142,7 +7120,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -7158,7 +7136,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>83</v>
+        <v>175</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -7461,7 +7439,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153864</v>
+        <v>20153849</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -7485,7 +7463,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -7501,7 +7479,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -7517,7 +7495,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -7533,7 +7511,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -7549,7 +7527,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -7564,9 +7542,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -7574,7 +7550,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -7585,7 +7561,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -7594,7 +7570,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>86</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -7606,7 +7582,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -7614,7 +7590,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -7710,7 +7686,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -7753,7 +7729,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8159,9 +8135,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8169,7 +8143,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8180,7 +8154,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8189,7 +8163,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8201,7 +8175,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8209,7 +8183,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8305,7 +8279,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8348,7 +8322,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -8651,7 +8625,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153849</v>
+        <v>20153844</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -8675,7 +8649,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -8691,7 +8665,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -8707,7 +8681,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -8723,7 +8697,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -8739,7 +8713,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -8754,9 +8728,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>73</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -8764,7 +8736,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -8775,7 +8747,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -8784,7 +8756,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>90</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -8796,7 +8768,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -8804,7 +8776,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -8900,7 +8872,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -8927,7 +8899,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -8943,7 +8915,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9246,7 +9218,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153844</v>
+        <v>20153839</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9270,7 +9242,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9286,7 +9258,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9302,7 +9274,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9318,7 +9290,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9334,7 +9306,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9349,9 +9321,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9359,7 +9329,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9370,7 +9340,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9379,7 +9349,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9391,7 +9361,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9399,7 +9369,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -9495,7 +9465,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -9538,7 +9508,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -9841,7 +9811,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153839</v>
+        <v>20153851</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -9865,7 +9835,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -9881,7 +9851,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -9897,7 +9867,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -9913,7 +9883,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -9929,7 +9899,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -9944,9 +9914,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -9954,7 +9922,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -9965,7 +9933,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -9974,7 +9942,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -9986,7 +9954,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -9994,7 +9962,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10090,7 +10058,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10117,7 +10085,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -10133,7 +10101,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>83</v>
+        <v>206</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -10436,7 +10404,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153851</v>
+        <v>20153850</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -10460,7 +10428,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -10476,7 +10444,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -10492,7 +10460,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -10508,7 +10476,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -10524,7 +10492,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -10539,9 +10507,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>73</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -10549,7 +10515,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -10560,7 +10526,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -10569,7 +10535,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -10581,7 +10547,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -10589,7 +10555,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -10685,7 +10651,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -10712,7 +10678,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2012</v>
+        <v>2008</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -10728,7 +10694,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>215</v>
+        <v>65</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11031,7 +10997,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153850</v>
+        <v>20153865</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11055,7 +11021,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11071,7 +11037,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11087,7 +11053,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11103,7 +11069,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11119,7 +11085,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11134,9 +11100,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>149</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11144,7 +11108,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11155,7 +11119,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11164,7 +11128,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11176,7 +11140,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11184,7 +11148,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11280,7 +11244,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11307,7 +11271,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2008</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -11323,7 +11287,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>67</v>
+        <v>221</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -11626,7 +11590,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153865</v>
+        <v>20153848</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -11650,7 +11614,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -11666,7 +11630,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -11682,7 +11646,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -11698,7 +11662,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -11714,7 +11678,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -11729,9 +11693,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -11739,7 +11701,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -11750,7 +11712,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -11759,7 +11721,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -11771,7 +11733,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -11779,7 +11741,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -11875,7 +11837,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -11902,7 +11864,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2006</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -11918,7 +11880,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12221,7 +12183,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153848</v>
+        <v>20153859</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12245,7 +12207,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12261,7 +12223,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12277,7 +12239,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12293,7 +12255,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12309,7 +12271,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12324,9 +12286,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>89</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12334,7 +12294,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12345,7 +12305,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12354,7 +12314,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12366,7 +12326,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12374,7 +12334,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -12470,7 +12430,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -12497,7 +12457,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -12513,7 +12473,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>238</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -12816,7 +12776,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153859</v>
+        <v>20153857</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -12840,7 +12800,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -12856,7 +12816,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -12872,7 +12832,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -12888,7 +12848,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -12904,7 +12864,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -12919,9 +12879,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>73</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -12929,7 +12887,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -12940,7 +12898,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -12949,7 +12907,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -12961,7 +12919,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -12969,7 +12927,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13065,7 +13023,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13092,7 +13050,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -13108,7 +13066,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -13411,7 +13369,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153857</v>
+        <v>20153845</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -13435,7 +13393,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -13451,7 +13409,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -13467,7 +13425,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -13483,7 +13441,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -13499,7 +13457,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -13514,9 +13472,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>125</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -13524,7 +13480,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -13535,7 +13491,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -13544,7 +13500,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -13556,7 +13512,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -13564,7 +13520,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -13660,7 +13616,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -13687,7 +13643,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -13703,7 +13659,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>128</v>
+        <v>251</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14006,7 +13962,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153845</v>
+        <v>20153846</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -14030,7 +13986,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14046,7 +14002,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14062,7 +14018,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14078,7 +14034,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14094,7 +14050,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14109,9 +14065,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>49</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14119,7 +14073,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14130,7 +14084,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14139,7 +14093,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14151,7 +14105,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14159,7 +14113,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14255,7 +14209,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14282,7 +14236,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2013</v>
+        <v>2009</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -14298,7 +14252,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>260</v>
+        <v>161</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -14625,7 +14579,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -14641,7 +14595,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -14657,7 +14611,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -14673,7 +14627,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -14689,7 +14643,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -14704,9 +14658,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -14714,7 +14666,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -14725,7 +14677,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -14734,7 +14686,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -14746,7 +14698,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -14754,7 +14706,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -14850,7 +14802,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -14893,7 +14845,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15196,7 +15148,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153846</v>
+        <v>20153840</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15220,7 +15172,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15236,7 +15188,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15252,7 +15204,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15268,7 +15220,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15284,7 +15236,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>265</v>
+        <v>225</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15299,9 +15251,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15309,7 +15259,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15320,7 +15270,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15329,7 +15279,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15341,7 +15291,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15349,7 +15299,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -15445,7 +15395,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -15472,7 +15422,7 @@
       <c r="C27" s="23"/>
       <c r="D27" s="23"/>
       <c r="E27" s="26">
-        <v>2009</v>
+        <v>2012</v>
       </c>
       <c r="F27" s="26"/>
       <c r="G27" s="23" t="s">
@@ -15488,7 +15438,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>170</v>
+        <v>265</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -15791,7 +15741,7 @@
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="19">
-        <v>20153840</v>
+        <v>20153841</v>
       </c>
       <c r="G7" s="19"/>
     </row>
@@ -15815,7 +15765,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -15831,7 +15781,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -15847,7 +15797,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -15863,7 +15813,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -15879,7 +15829,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -15894,9 +15844,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>73</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -15904,7 +15852,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -15915,7 +15863,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -15924,7 +15872,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -15936,7 +15884,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -15944,7 +15892,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -16040,7 +15988,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -16083,7 +16031,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -16286,601 +16234,6 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J37"/>
-  <sheetViews>
-    <sheetView tabSelected="0" workbookViewId="0" zoomScale="96" view="pageBreakPreview" showGridLines="false" showRowColHeaders="1">
-      <selection activeCell="H24" sqref="H24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="true" style="0"/>
-    <col min="2" max="2" width="7.77734375" customWidth="true" style="0"/>
-    <col min="3" max="3" width="8.33203125" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.5546875" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.6640625" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.109375" customWidth="true" style="0"/>
-    <col min="8" max="8" width="6.77734375" customWidth="true" style="0"/>
-    <col min="9" max="9" width="8" customWidth="true" style="0"/>
-    <col min="10" max="10" width="8.77734375" customWidth="true" style="0"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A1" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-    </row>
-    <row r="2" spans="1:10" customHeight="1" ht="23.4">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="1:10" customHeight="1" ht="18">
-      <c r="A3" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-    </row>
-    <row r="4" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A4" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-    </row>
-    <row r="5" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-    </row>
-    <row r="7" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A7" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="19">
-        <v>2015</v>
-      </c>
-      <c r="C7" s="19"/>
-      <c r="D7" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="19">
-        <v>20153841</v>
-      </c>
-      <c r="G7" s="19"/>
-    </row>
-    <row r="9" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-    </row>
-    <row r="10" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A10" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="26" t="s">
-        <v>275</v>
-      </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A11" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="20" t="s">
-        <v>276</v>
-      </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A12" s="24" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>277</v>
-      </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="11"/>
-    </row>
-    <row r="13" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A13" s="24" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="20" t="s">
-        <v>278</v>
-      </c>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="11"/>
-    </row>
-    <row r="14" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A14" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="20" t="s">
-        <v>279</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="11"/>
-    </row>
-    <row r="15" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A15" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G15" s="25"/>
-      <c r="H15" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A16" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="25"/>
-      <c r="H16" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="38"/>
-    </row>
-    <row r="17" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="G17" s="25"/>
-      <c r="H17" s="20" t="s">
-        <v>280</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="38"/>
-    </row>
-    <row r="18" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A18" s="40" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G18" s="37"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="39"/>
-    </row>
-    <row r="20" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A20" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36"/>
-    </row>
-    <row r="21" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="23"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="41"/>
-    </row>
-    <row r="22" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A22" s="24" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" s="25"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="38"/>
-    </row>
-    <row r="23" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="25"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="38"/>
-    </row>
-    <row r="24" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A24" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="B24" s="37"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="42" t="s">
-        <v>281</v>
-      </c>
-      <c r="I24" s="21"/>
-      <c r="J24" s="39"/>
-    </row>
-    <row r="26" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A26" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-    </row>
-    <row r="27" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="26">
-        <v>2012</v>
-      </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="41"/>
-    </row>
-    <row r="28" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A28" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="25"/>
-      <c r="C28" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="20"/>
-      <c r="J28" s="38"/>
-    </row>
-    <row r="29" spans="1:10" customHeight="1" ht="16.2">
-      <c r="A29" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="21"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="21"/>
-      <c r="I29" s="21"/>
-      <c r="J29" s="39"/>
-    </row>
-    <row r="31" spans="1:10" customHeight="1" ht="18.6">
-      <c r="A31" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="36"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="36"/>
-      <c r="I31" s="36"/>
-      <c r="J31" s="36"/>
-    </row>
-    <row r="32" spans="1:10" customHeight="1" ht="15.6">
-      <c r="A32" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="28"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10">
-      <c r="A33" s="30"/>
-      <c r="B33" s="31"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-    </row>
-    <row r="34" spans="1:10">
-      <c r="A34" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="34"/>
-      <c r="H34" s="34"/>
-      <c r="I34" s="34"/>
-      <c r="J34" s="35"/>
-    </row>
-    <row r="35" spans="1:10">
-      <c r="A35" s="2"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="4"/>
-    </row>
-    <row r="36" spans="1:10">
-      <c r="A36" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="31"/>
-      <c r="J36" s="32"/>
-    </row>
-    <row r="37" spans="1:10" customHeight="1" ht="15">
-      <c r="A37" s="5"/>
-      <c r="B37" s="6"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="6"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
-      <c r="I37" s="6"/>
-      <c r="J37" s="7"/>
-    </row>
-  </sheetData>
-  <sheetProtection password="8053" sheet="true" objects="true" scenarios="false" formatCells="true" formatColumns="false" formatRows="false" insertColumns="false" insertRows="true" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="true" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
-    <mergeCell ref="A36:J36"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C21:E21"/>
-    <mergeCell ref="C22:E22"/>
-    <mergeCell ref="C23:E23"/>
-    <mergeCell ref="C24:E24"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A31:J31"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="C28:J28"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:G11"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="A9:J9"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="B7:C7"/>
-  </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
-  <pageMargins left="0.475" right="0.5583333333333333" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
   <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="0" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
@@ -16904,7 +16257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -17061,7 +16414,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17077,7 +16430,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17093,7 +16446,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17109,7 +16462,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17125,7 +16478,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17140,9 +16493,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>73</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17150,7 +16501,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17161,7 +16512,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17170,7 +16521,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17182,7 +16533,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17190,7 +16541,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -17286,7 +16637,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17329,7 +16680,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -17656,7 +17007,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -17672,7 +17023,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -17688,7 +17039,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -17704,7 +17055,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -17720,7 +17071,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -17735,9 +17086,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>73</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -17745,7 +17094,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -17756,7 +17105,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -17765,7 +17114,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -17777,7 +17126,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -17881,7 +17230,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -17924,7 +17273,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18251,7 +17600,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18267,7 +17616,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18283,7 +17632,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18299,7 +17648,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18315,7 +17664,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18330,9 +17679,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>89</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18340,7 +17687,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18351,7 +17698,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18360,7 +17707,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18372,7 +17719,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18380,7 +17727,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -18476,7 +17823,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -18519,7 +17866,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -18846,7 +18193,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -18862,7 +18209,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -18878,7 +18225,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -18894,7 +18241,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -18910,7 +18257,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -18925,9 +18272,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>73</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -18935,7 +18280,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -18946,7 +18291,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -18955,7 +18300,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -18967,7 +18312,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -18975,7 +18320,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -19071,7 +18416,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -19114,7 +18459,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
@@ -19441,7 +18786,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -19457,7 +18802,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19648,7 +18993,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20014,7 +19359,7 @@
       </c>
       <c r="B10" s="23"/>
       <c r="C10" s="26" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="26"/>
@@ -20030,7 +19375,7 @@
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="20" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -20046,7 +19391,7 @@
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="20" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -20062,7 +19407,7 @@
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="D13" s="20"/>
       <c r="E13" s="20"/>
@@ -20078,7 +19423,7 @@
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="20" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="20"/>
@@ -20093,9 +19438,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="25"/>
-      <c r="C15" s="20" t="s">
-        <v>62</v>
-      </c>
+      <c r="C15" s="20"/>
       <c r="D15" s="20"/>
       <c r="E15" s="20"/>
       <c r="F15" s="25" t="s">
@@ -20103,7 +19446,7 @@
       </c>
       <c r="G15" s="25"/>
       <c r="H15" s="20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I15" s="20"/>
       <c r="J15" s="38"/>
@@ -20114,7 +19457,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="20"/>
       <c r="E16" s="20"/>
@@ -20123,7 +19466,7 @@
       </c>
       <c r="G16" s="25"/>
       <c r="H16" s="20" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I16" s="20"/>
       <c r="J16" s="38"/>
@@ -20135,7 +19478,7 @@
       <c r="B17" s="25"/>
       <c r="C17" s="25"/>
       <c r="D17" s="20" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="25" t="s">
@@ -20143,7 +19486,7 @@
       </c>
       <c r="G17" s="25"/>
       <c r="H17" s="20" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="I17" s="20"/>
       <c r="J17" s="38"/>
@@ -20239,7 +19582,7 @@
       </c>
       <c r="G24" s="37"/>
       <c r="H24" s="42" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="I24" s="21"/>
       <c r="J24" s="39"/>
@@ -20282,7 +19625,7 @@
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="20" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D28" s="20"/>
       <c r="E28" s="20"/>
